--- a/subRE/medidasEspaciosdecolorRE.xlsx
+++ b/subRE/medidasEspaciosdecolorRE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="22">
   <si>
     <t>RGB</t>
   </si>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -219,19 +219,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,6 +240,17 @@
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,731 +275,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$B$179</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Correlación</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$A$180:$A$196</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>RGB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>R</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>G</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HSV</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>H</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>V</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>YUV</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Y</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>U</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>V</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>XYZ</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>X</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Y</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Z</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>GRIS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$B$180:$B$196</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0.15706086633862873</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.295431360864553E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1455892637334428</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.36176199572830781</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0044181670183063E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55824587217241017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23021752929228101</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.41414147090312114</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.29318793674758592</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.9257290956732526E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5983447060590017</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.77032638484062443</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.25333334293634857</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.608618849195461E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.9281399901689337E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.58913473999573751</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.9257290956732526E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF19-4D02-99A0-C569AC51CB6B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="300"/>
-        <c:axId val="1325422736"/>
-        <c:axId val="1325423568"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1325422736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>Espacio</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-CO" baseline="0"/>
-                  <a:t> de color</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1325423568"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1325423568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>Correlación</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1325422736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$D$179</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bhattacharyya</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$C$180:$C$196</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>RGB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>R</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>G</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HSV</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>H</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>V</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>YUV</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Y</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>U</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>V</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>XYZ</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>X</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Y</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Z</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>GRIS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$D$180:$D$196</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0.66176702481913174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58203264321074633</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.57095928847568911</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.49156630720380495</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68329957211165648</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.45496072659412384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.51206319431487679</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.50532763227546862</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.63366201868057515</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.56986163284103097</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.46578486127052043</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.32677919946342621</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.62434175153772009</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.56813583955747693</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.56924181543829822</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.49308328546134422</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.56986163284103097</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CDDE-4AD1-967E-9AA316F9F9FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1315849936"/>
-        <c:axId val="1315851600"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1315849936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1315851600"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1315851600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1315849936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1205,6 +484,30 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Espacios</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de color</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1270,6 +573,25 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Media</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1306,6 +628,11 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1318,24 +645,1692 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$179</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correlación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$H$180:$H$196</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Hoja1!$H$180:$H$182,Hoja1!$H$184,Hoja1!$H$186,Hoja1!$H$188:$H$189,Hoja1!$H$192:$H$194,Hoja1!$H$196)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>RGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HSV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>YUV</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>XYZ</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GRIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$I$180:$I$196</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Hoja1!$I$180:$I$182,Hoja1!$I$184,Hoja1!$I$186,Hoja1!$I$188:$I$189,Hoja1!$I$192:$I$194,Hoja1!$I$196)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.31987950284999311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46288419739238468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36806673413511409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48083237059216044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41350291987447085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35760760801951341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40423237650653238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32977423646401594</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40512329246849071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39810867774465014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40423237650653238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9C5-4399-A8EE-76DA2B1E86F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$179</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bhattacharyya</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$H$180:$H$196</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Hoja1!$H$180:$H$182,Hoja1!$H$184,Hoja1!$H$186,Hoja1!$H$188:$H$189,Hoja1!$H$192:$H$194,Hoja1!$H$196)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>RGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HSV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>YUV</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>XYZ</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GRIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$K$180:$K$196</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Hoja1!$K$180:$K$182,Hoja1!$K$184,Hoja1!$K$186,Hoja1!$K$188:$K$189,Hoja1!$K$192:$K$194,Hoja1!$K$196)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.197133470703308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24137922428465935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23705628885818197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18612216590969993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21281587682475336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20215518658880935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23816127303189813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20401695933410952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23635730311209296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23864175840161883</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23816127303189813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E9C5-4399-A8EE-76DA2B1E86F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539059407"/>
+        <c:axId val="539048175"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539059407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Espacios</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> de color </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539048175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539048175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Desviación Estandar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539059407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$179</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correlación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$180:$A$196</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>RGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HSV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>YUV</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>XYZ</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Z</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>GRIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$180:$B$196</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.15706086633862873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.295431360864553E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1455892637334428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36176199572830781</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0044181670183063E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55824587217241017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23021752929228101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41414147090312114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29318793674758592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9257290956732526E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5983447060590017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77032638484062443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25333334293634857</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.608618849195461E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9281399901689337E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.58913473999573751</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9257290956732526E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4F9-4673-BFAF-B62C6A3739DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$179</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bhattacharyya</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$180:$C$196</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>RGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HSV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>YUV</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>XYZ</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Z</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>GRIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$180:$D$196</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.66176702481913174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58203264321074633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57095928847568911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49156630720380495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68329957211165648</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45496072659412384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51206319431487679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50532763227546862</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63366201868057515</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56986163284103097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46578486127052043</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32677919946342621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62434175153772009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56813583955747693</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56924181543829822</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49308328546134422</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56986163284103097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4F9-4673-BFAF-B62C6A3739DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1315849936"/>
+        <c:axId val="1315851600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1315849936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Espacio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de color</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1315851600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1315851600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Media</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1315849936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>157692</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>294218</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1175809</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>486834</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1352,20 +2347,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>179916</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>248706</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>178859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>243417</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>35453</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>179916</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1382,21 +2377,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>315384</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>56621</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>137584</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>244474</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="6" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1678,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="N179" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U204" sqref="U204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,91 +2721,91 @@
   <sheetData>
     <row r="1" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="17" t="s">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="17" t="s">
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="17" t="s">
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="17" t="s">
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="17" t="s">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="17" t="s">
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="17" t="s">
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="17" t="s">
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17" t="s">
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="17" t="s">
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="15" t="s">
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -27547,86 +28544,86 @@
       </c>
     </row>
     <row r="170" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B170" s="16"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="17" t="s">
+      <c r="B170" s="29"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E170" s="16"/>
-      <c r="F170" s="16"/>
-      <c r="G170" s="20" t="s">
+      <c r="E170" s="29"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H170" s="21"/>
-      <c r="I170" s="21"/>
-      <c r="J170" s="17" t="s">
+      <c r="H170" s="32"/>
+      <c r="I170" s="32"/>
+      <c r="J170" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="K170" s="16"/>
-      <c r="L170" s="16"/>
-      <c r="M170" s="17" t="s">
+      <c r="K170" s="29"/>
+      <c r="L170" s="29"/>
+      <c r="M170" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N170" s="16"/>
-      <c r="O170" s="16"/>
-      <c r="P170" s="17" t="s">
+      <c r="N170" s="29"/>
+      <c r="O170" s="29"/>
+      <c r="P170" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Q170" s="16"/>
-      <c r="R170" s="16"/>
-      <c r="S170" s="17" t="s">
+      <c r="Q170" s="29"/>
+      <c r="R170" s="29"/>
+      <c r="S170" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="T170" s="16"/>
-      <c r="U170" s="16"/>
-      <c r="V170" s="17" t="s">
+      <c r="T170" s="29"/>
+      <c r="U170" s="29"/>
+      <c r="V170" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="W170" s="16"/>
-      <c r="X170" s="16"/>
-      <c r="Y170" s="17" t="s">
+      <c r="W170" s="29"/>
+      <c r="X170" s="29"/>
+      <c r="Y170" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Z170" s="16"/>
-      <c r="AA170" s="16"/>
-      <c r="AB170" s="17" t="s">
+      <c r="Z170" s="29"/>
+      <c r="AA170" s="29"/>
+      <c r="AB170" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AC170" s="16"/>
-      <c r="AD170" s="16"/>
-      <c r="AE170" s="17" t="s">
+      <c r="AC170" s="29"/>
+      <c r="AD170" s="29"/>
+      <c r="AE170" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AF170" s="16"/>
-      <c r="AG170" s="16"/>
-      <c r="AH170" s="17" t="s">
+      <c r="AF170" s="29"/>
+      <c r="AG170" s="29"/>
+      <c r="AH170" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AI170" s="16"/>
-      <c r="AJ170" s="16"/>
-      <c r="AK170" s="17" t="s">
+      <c r="AI170" s="29"/>
+      <c r="AJ170" s="29"/>
+      <c r="AK170" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AL170" s="16"/>
-      <c r="AM170" s="16"/>
-      <c r="AN170" s="17" t="s">
+      <c r="AL170" s="29"/>
+      <c r="AM170" s="29"/>
+      <c r="AN170" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AO170" s="16"/>
-      <c r="AP170" s="16"/>
-      <c r="AQ170" s="17" t="s">
+      <c r="AO170" s="29"/>
+      <c r="AP170" s="29"/>
+      <c r="AQ170" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AR170" s="16"/>
-      <c r="AS170" s="16"/>
-      <c r="AT170" s="17" t="s">
+      <c r="AR170" s="29"/>
+      <c r="AS170" s="29"/>
+      <c r="AT170" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AU170" s="16"/>
-      <c r="AV170" s="16"/>
+      <c r="AU170" s="29"/>
+      <c r="AV170" s="29"/>
     </row>
     <row r="171" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
@@ -27647,13 +28644,13 @@
       <c r="F171" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G171" s="22" t="s">
+      <c r="G171" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H171" s="22" t="s">
+      <c r="H171" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I171" s="22" t="s">
+      <c r="I171" s="19" t="s">
         <v>17</v>
       </c>
       <c r="J171" s="4" t="s">
@@ -27808,15 +28805,15 @@
         <f t="shared" si="0"/>
         <v>112953.0240610881</v>
       </c>
-      <c r="G172" s="23">
+      <c r="G172" s="20">
         <f t="shared" si="0"/>
         <v>0.1455892637334428</v>
       </c>
-      <c r="H172" s="24">
+      <c r="H172" s="21">
         <f t="shared" si="0"/>
         <v>0.57095928847568911</v>
       </c>
-      <c r="I172" s="24">
+      <c r="I172" s="21">
         <f t="shared" si="0"/>
         <v>114645.6197642131</v>
       </c>
@@ -28014,15 +29011,15 @@
         <f t="shared" si="2"/>
         <v>54502.506850620979</v>
       </c>
-      <c r="G173" s="25">
+      <c r="G173" s="22">
         <f t="shared" si="2"/>
         <v>0.36806673413511409</v>
       </c>
-      <c r="H173" s="25">
+      <c r="H173" s="22">
         <f t="shared" si="2"/>
         <v>0.23705628885818197</v>
       </c>
-      <c r="I173" s="25">
+      <c r="I173" s="22">
         <f t="shared" si="2"/>
         <v>57603.371817252708</v>
       </c>
@@ -28202,9 +29199,9 @@
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
-      <c r="G174" s="25"/>
-      <c r="H174" s="25"/>
-      <c r="I174" s="25"/>
+      <c r="G174" s="22"/>
+      <c r="H174" s="22"/>
+      <c r="I174" s="22"/>
       <c r="J174" s="10"/>
       <c r="K174" s="10"/>
       <c r="L174" s="10"/>
@@ -28249,7 +29246,7 @@
       <c r="AY174" s="10"/>
     </row>
     <row r="175" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A175" s="18">
+      <c r="A175" s="17">
         <f>A172+A173</f>
         <v>0.47694036918862182</v>
       </c>
@@ -28261,7 +29258,7 @@
         <f>C172-C173</f>
         <v>56528.583680573531</v>
       </c>
-      <c r="D175" s="18">
+      <c r="D175" s="17">
         <f>D172+D173</f>
         <v>0.53583851100103019</v>
       </c>
@@ -28273,176 +29270,176 @@
         <f>F172-F173</f>
         <v>58450.517210467122</v>
       </c>
-      <c r="G175" s="26">
-        <f t="shared" ref="G175:AY175" si="4">G172+G173</f>
+      <c r="G175" s="23">
+        <f t="shared" ref="G175" si="4">G172+G173</f>
         <v>0.51365599786855687</v>
       </c>
-      <c r="H175" s="25">
-        <f t="shared" ref="H175:AY175" si="5">H172-H173</f>
+      <c r="H175" s="22">
+        <f t="shared" ref="H175:I175" si="5">H172-H173</f>
         <v>0.33390299961750713</v>
       </c>
-      <c r="I175" s="25">
+      <c r="I175" s="22">
         <f t="shared" si="5"/>
         <v>57042.247946960393</v>
       </c>
-      <c r="J175" s="18">
-        <f t="shared" ref="J175:AY175" si="6">J172+J173</f>
+      <c r="J175" s="17">
+        <f t="shared" ref="J175" si="6">J172+J173</f>
         <v>0.76107315717728941</v>
       </c>
       <c r="K175" s="10">
-        <f t="shared" ref="K175:AY175" si="7">K172-K173</f>
+        <f t="shared" ref="K175:L175" si="7">K172-K173</f>
         <v>0.28946514929057687</v>
       </c>
       <c r="L175" s="10">
         <f t="shared" si="7"/>
         <v>50474.374557432966</v>
       </c>
-      <c r="M175" s="18">
-        <f t="shared" ref="M175:AY175" si="8">M172+M173</f>
+      <c r="M175" s="17">
+        <f t="shared" ref="M175" si="8">M172+M173</f>
         <v>0.50087655226234351</v>
       </c>
       <c r="N175" s="10">
-        <f t="shared" ref="N175:AY175" si="9">N172-N173</f>
+        <f t="shared" ref="N175:O175" si="9">N172-N173</f>
         <v>0.49717740620195655</v>
       </c>
       <c r="O175" s="10">
         <f t="shared" si="9"/>
         <v>81503.610811557781</v>
       </c>
-      <c r="P175" s="18">
-        <f t="shared" ref="P175:AY175" si="10">P172+P173</f>
+      <c r="P175" s="17">
+        <f t="shared" ref="P175" si="10">P172+P173</f>
         <v>0.85836316835310877</v>
       </c>
       <c r="Q175" s="10">
-        <f t="shared" ref="Q175:AY175" si="11">Q172-Q173</f>
+        <f t="shared" ref="Q175:R175" si="11">Q172-Q173</f>
         <v>0.30233923792952772</v>
       </c>
       <c r="R175" s="10">
         <f t="shared" si="11"/>
         <v>113259.9164648154</v>
       </c>
-      <c r="S175" s="18">
-        <f t="shared" ref="S175:AY175" si="12">S172+S173</f>
+      <c r="S175" s="17">
+        <f t="shared" ref="S175" si="12">S172+S173</f>
         <v>0.64372044916675186</v>
       </c>
       <c r="T175" s="10">
-        <f t="shared" ref="T175:AY175" si="13">T172-T173</f>
+        <f t="shared" ref="T175:U175" si="13">T172-T173</f>
         <v>0.29924731749012345</v>
       </c>
       <c r="U175" s="10">
         <f t="shared" si="13"/>
         <v>56990.296235106929</v>
       </c>
-      <c r="V175" s="18">
-        <f t="shared" ref="V175:AY175" si="14">V172+V173</f>
+      <c r="V175" s="17">
+        <f t="shared" ref="V175" si="14">V172+V173</f>
         <v>0.77520725479777808</v>
       </c>
       <c r="W175" s="10">
-        <f t="shared" ref="W175:AY175" si="15">W172-W173</f>
+        <f t="shared" ref="W175:X175" si="15">W172-W173</f>
         <v>0.28924347325040323</v>
       </c>
       <c r="X175" s="10">
         <f t="shared" si="15"/>
         <v>57130.940400103078</v>
       </c>
-      <c r="Y175" s="18">
-        <f t="shared" ref="Y175:AY175" si="16">Y172+Y173</f>
+      <c r="Y175" s="17">
+        <f t="shared" ref="Y175" si="16">Y172+Y173</f>
         <v>0.65079554476709933</v>
       </c>
       <c r="Z175" s="10">
-        <f t="shared" ref="Z175:AY175" si="17">Z172-Z173</f>
+        <f t="shared" ref="Z175:AA175" si="17">Z172-Z173</f>
         <v>0.43150683209176577</v>
       </c>
       <c r="AA175" s="10">
         <f t="shared" si="17"/>
         <v>101632.8549892162</v>
       </c>
-      <c r="AB175" s="19">
-        <f t="shared" ref="AB175:AY175" si="18">AB172+AB173</f>
+      <c r="AB175" s="18">
+        <f t="shared" ref="AB175" si="18">AB172+AB173</f>
         <v>0.47348966746326493</v>
       </c>
       <c r="AC175" s="10">
-        <f t="shared" ref="AC175:AY175" si="19">AC172-AC173</f>
+        <f t="shared" ref="AC175:AD175" si="19">AC172-AC173</f>
         <v>0.33170035980913282</v>
       </c>
       <c r="AD175" s="10">
         <f t="shared" si="19"/>
         <v>52656.200275420029</v>
       </c>
-      <c r="AE175" s="18">
-        <f t="shared" ref="AE175:AY175" si="20">AE172+AE173</f>
+      <c r="AE175" s="17">
+        <f t="shared" ref="AE175" si="20">AE172+AE173</f>
         <v>0.85819309259515109</v>
       </c>
       <c r="AF175" s="10">
-        <f t="shared" ref="AF175:AY175" si="21">AF172-AF173</f>
+        <f t="shared" ref="AF175:AG175" si="21">AF172-AF173</f>
         <v>0.29269564814766025</v>
       </c>
       <c r="AG175" s="10">
         <f t="shared" si="21"/>
         <v>106528.18638293141</v>
       </c>
-      <c r="AH175" s="18">
-        <f t="shared" ref="AH175:AY175" si="22">AH172+AH173</f>
+      <c r="AH175" s="17">
+        <f t="shared" ref="AH175" si="22">AH172+AH173</f>
         <v>0.9731515653369166</v>
       </c>
       <c r="AI175" s="10">
-        <f t="shared" ref="AI175:AY175" si="23">AI172-AI173</f>
+        <f t="shared" ref="AI175:AJ175" si="23">AI172-AI173</f>
         <v>0.18355356833575945</v>
       </c>
       <c r="AJ175" s="10">
         <f t="shared" si="23"/>
         <v>131126.0923357282</v>
       </c>
-      <c r="AK175" s="18">
-        <f t="shared" ref="AK175:AY175" si="24">AK172+AK173</f>
+      <c r="AK175" s="17">
+        <f t="shared" ref="AK175" si="24">AK172+AK173</f>
         <v>0.58310757940036451</v>
       </c>
       <c r="AL175" s="10">
-        <f t="shared" ref="AL175:AY175" si="25">AL172-AL173</f>
+        <f t="shared" ref="AL175:AM175" si="25">AL172-AL173</f>
         <v>0.42032479220361058</v>
       </c>
       <c r="AM175" s="10">
         <f t="shared" si="25"/>
         <v>56957.086485291657</v>
       </c>
-      <c r="AN175" s="19">
-        <f t="shared" ref="AN175:AY175" si="26">AN172+AN173</f>
+      <c r="AN175" s="18">
+        <f t="shared" ref="AN175" si="26">AN172+AN173</f>
         <v>0.49120948096044531</v>
       </c>
       <c r="AO175" s="10">
-        <f t="shared" ref="AO175:AY175" si="27">AO172-AO173</f>
+        <f t="shared" ref="AO175:AP175" si="27">AO172-AO173</f>
         <v>0.33177853644538396</v>
       </c>
       <c r="AP175" s="10">
         <f t="shared" si="27"/>
         <v>52180.238975529377</v>
       </c>
-      <c r="AQ175" s="19">
-        <f t="shared" ref="AQ175:AY175" si="28">AQ172+AQ173</f>
+      <c r="AQ175" s="18">
+        <f t="shared" ref="AQ175" si="28">AQ172+AQ173</f>
         <v>0.47739007764633945</v>
       </c>
       <c r="AR175" s="10">
-        <f t="shared" ref="AR175:AY175" si="29">AR172-AR173</f>
+        <f t="shared" ref="AR175:AS175" si="29">AR172-AR173</f>
         <v>0.33060005703667938</v>
       </c>
       <c r="AS175" s="10">
         <f t="shared" si="29"/>
         <v>52770.323013481546</v>
       </c>
-      <c r="AT175" s="18">
-        <f t="shared" ref="AT175:AY175" si="30">AT172+AT173</f>
+      <c r="AT175" s="17">
+        <f t="shared" ref="AT175" si="30">AT172+AT173</f>
         <v>0.95961302698562323</v>
       </c>
       <c r="AU175" s="10">
-        <f t="shared" ref="AU175:AY175" si="31">AU172-AU173</f>
+        <f t="shared" ref="AU175:AV175" si="31">AU172-AU173</f>
         <v>0.28407470973027182</v>
       </c>
       <c r="AV175" s="10">
         <f t="shared" si="31"/>
         <v>56727.318572896867</v>
       </c>
-      <c r="AW175" s="19">
-        <f t="shared" ref="AW175:AY175" si="32">AW172+AW173</f>
+      <c r="AW175" s="18">
+        <f t="shared" ref="AW175" si="32">AW172+AW173</f>
         <v>0.47348966746326493</v>
       </c>
       <c r="AX175" s="10">
@@ -28455,120 +29452,120 @@
       </c>
     </row>
     <row r="176" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="18"/>
+      <c r="A176" s="17"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
-      <c r="D176" s="18"/>
+      <c r="D176" s="17"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="28"/>
-      <c r="I176" s="28"/>
-      <c r="J176" s="18"/>
+      <c r="G176" s="24"/>
+      <c r="H176" s="25"/>
+      <c r="I176" s="25"/>
+      <c r="J176" s="17"/>
       <c r="K176" s="10"/>
       <c r="L176" s="10"/>
-      <c r="M176" s="18"/>
+      <c r="M176" s="17"/>
       <c r="N176" s="10"/>
       <c r="O176" s="10"/>
-      <c r="P176" s="18"/>
+      <c r="P176" s="17"/>
       <c r="Q176" s="10"/>
       <c r="R176" s="10"/>
-      <c r="S176" s="18"/>
+      <c r="S176" s="17"/>
       <c r="T176" s="10"/>
       <c r="U176" s="10"/>
-      <c r="V176" s="18"/>
+      <c r="V176" s="17"/>
       <c r="W176" s="10"/>
       <c r="X176" s="10"/>
-      <c r="Y176" s="18"/>
+      <c r="Y176" s="17"/>
       <c r="Z176" s="10"/>
       <c r="AA176" s="10"/>
-      <c r="AB176" s="19"/>
+      <c r="AB176" s="18"/>
       <c r="AC176" s="10"/>
       <c r="AD176" s="10"/>
-      <c r="AE176" s="18"/>
+      <c r="AE176" s="17"/>
       <c r="AF176" s="10"/>
       <c r="AG176" s="10"/>
-      <c r="AH176" s="18"/>
+      <c r="AH176" s="17"/>
       <c r="AI176" s="10"/>
       <c r="AJ176" s="10"/>
-      <c r="AK176" s="18"/>
+      <c r="AK176" s="17"/>
       <c r="AL176" s="10"/>
       <c r="AM176" s="10"/>
-      <c r="AN176" s="19"/>
+      <c r="AN176" s="18"/>
       <c r="AO176" s="10"/>
       <c r="AP176" s="10"/>
-      <c r="AQ176" s="19"/>
+      <c r="AQ176" s="18"/>
       <c r="AR176" s="10"/>
       <c r="AS176" s="10"/>
-      <c r="AT176" s="18"/>
+      <c r="AT176" s="17"/>
       <c r="AU176" s="10"/>
       <c r="AV176" s="10"/>
-      <c r="AW176" s="19"/>
+      <c r="AW176" s="18"/>
       <c r="AX176" s="10"/>
       <c r="AY176" s="10"/>
     </row>
     <row r="177" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="29" t="s">
+      <c r="A177" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B177" s="30" t="s">
+      <c r="B177" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="30" t="s">
+      <c r="C177" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D177" s="29" t="s">
+      <c r="D177" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E177" s="30" t="s">
+      <c r="E177" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F177" s="30" t="s">
+      <c r="F177" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G177" s="27"/>
-      <c r="H177" s="28"/>
-      <c r="I177" s="28"/>
-      <c r="J177" s="18"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="17"/>
       <c r="K177" s="10"/>
       <c r="L177" s="10"/>
-      <c r="M177" s="18"/>
+      <c r="M177" s="17"/>
       <c r="N177" s="10"/>
       <c r="O177" s="10"/>
-      <c r="P177" s="18"/>
+      <c r="P177" s="17"/>
       <c r="Q177" s="10"/>
       <c r="R177" s="10"/>
-      <c r="S177" s="18"/>
+      <c r="S177" s="17"/>
       <c r="T177" s="10"/>
       <c r="U177" s="10"/>
-      <c r="V177" s="18"/>
+      <c r="V177" s="17"/>
       <c r="W177" s="10"/>
       <c r="X177" s="10"/>
-      <c r="Y177" s="18"/>
+      <c r="Y177" s="17"/>
       <c r="Z177" s="10"/>
       <c r="AA177" s="10"/>
-      <c r="AB177" s="19"/>
+      <c r="AB177" s="18"/>
       <c r="AC177" s="10"/>
       <c r="AD177" s="10"/>
-      <c r="AE177" s="18"/>
+      <c r="AE177" s="17"/>
       <c r="AF177" s="10"/>
       <c r="AG177" s="10"/>
-      <c r="AH177" s="18"/>
+      <c r="AH177" s="17"/>
       <c r="AI177" s="10"/>
       <c r="AJ177" s="10"/>
-      <c r="AK177" s="18"/>
+      <c r="AK177" s="17"/>
       <c r="AL177" s="10"/>
       <c r="AM177" s="10"/>
-      <c r="AN177" s="19"/>
+      <c r="AN177" s="18"/>
       <c r="AO177" s="10"/>
       <c r="AP177" s="10"/>
-      <c r="AQ177" s="19"/>
+      <c r="AQ177" s="18"/>
       <c r="AR177" s="10"/>
       <c r="AS177" s="10"/>
-      <c r="AT177" s="18"/>
+      <c r="AT177" s="17"/>
       <c r="AU177" s="10"/>
       <c r="AV177" s="10"/>
-      <c r="AW177" s="19"/>
+      <c r="AW177" s="18"/>
       <c r="AX177" s="10"/>
       <c r="AY177" s="10"/>
     </row>
@@ -28582,6 +29579,18 @@
       <c r="F179" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="H179" s="15"/>
+      <c r="I179" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J179" s="15"/>
+      <c r="K179" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L179" s="15"/>
+      <c r="M179" s="16" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="180" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
@@ -28605,6 +29614,27 @@
         <f>C172</f>
         <v>115969.95795290537</v>
       </c>
+      <c r="H180" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I180" s="11">
+        <f>A173</f>
+        <v>0.31987950284999311</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K180" s="11">
+        <f>B173</f>
+        <v>0.197133470703308</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M180" s="11">
+        <f>C173</f>
+        <v>59441.374272331843</v>
+      </c>
     </row>
     <row r="181" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
@@ -28628,6 +29658,27 @@
         <f>F172</f>
         <v>112953.0240610881</v>
       </c>
+      <c r="H181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I181" s="14">
+        <f>D173</f>
+        <v>0.46288419739238468</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K181" s="14">
+        <f>E173</f>
+        <v>0.24137922428465935</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M181" s="14">
+        <f>F173</f>
+        <v>54502.506850620979</v>
+      </c>
     </row>
     <row r="182" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
@@ -28651,6 +29702,27 @@
         <f>I172</f>
         <v>114645.6197642131</v>
       </c>
+      <c r="H182" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I182" s="14">
+        <f>G173</f>
+        <v>0.36806673413511409</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K182" s="14">
+        <f>H173</f>
+        <v>0.23705628885818197</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M182" s="14">
+        <f>I173</f>
+        <v>57603.371817252708</v>
+      </c>
     </row>
     <row r="183" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
@@ -28674,6 +29746,27 @@
         <f>L172</f>
         <v>120311.2300334149</v>
       </c>
+      <c r="H183" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I183" s="11">
+        <f>J173</f>
+        <v>0.3993111614489816</v>
+      </c>
+      <c r="J183" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K183" s="11">
+        <f>K173</f>
+        <v>0.20210115791322811</v>
+      </c>
+      <c r="L183" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M183" s="11">
+        <f>L173</f>
+        <v>69836.855475981938</v>
+      </c>
     </row>
     <row r="184" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
@@ -28696,6 +29789,27 @@
       <c r="F184" s="2">
         <f>O172</f>
         <v>155593.54599256386</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I184" s="11">
+        <f>M173</f>
+        <v>0.48083237059216044</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K184" s="11">
+        <f>N173</f>
+        <v>0.18612216590969993</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M184" s="11">
+        <f>O173</f>
+        <v>74089.935181006076</v>
       </c>
     </row>
     <row r="185" spans="1:51" x14ac:dyDescent="0.25">
@@ -28721,6 +29835,27 @@
         <f>R172</f>
         <v>243645.49196394955</v>
       </c>
+      <c r="H185" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I185" s="11">
+        <f>P173</f>
+        <v>0.30011729618069855</v>
+      </c>
+      <c r="J185" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K185" s="11">
+        <f>Q173</f>
+        <v>0.15262148866459613</v>
+      </c>
+      <c r="L185" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M185" s="11">
+        <f>R173</f>
+        <v>130385.57549913415</v>
+      </c>
     </row>
     <row r="186" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -28744,6 +29879,27 @@
         <f>U172</f>
         <v>104262.78069700678</v>
       </c>
+      <c r="H186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I186" s="14">
+        <f>S173</f>
+        <v>0.41350291987447085</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K186" s="14">
+        <f>T173</f>
+        <v>0.21281587682475336</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M186" s="14">
+        <f>U173</f>
+        <v>47272.484461899847</v>
+      </c>
     </row>
     <row r="187" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
@@ -28767,6 +29923,27 @@
         <f>X172</f>
         <v>118872.3653167357</v>
       </c>
+      <c r="H187" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I187" s="11">
+        <f>V173</f>
+        <v>0.36106578389465693</v>
+      </c>
+      <c r="J187" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K187" s="11">
+        <f>W173</f>
+        <v>0.21608415902506539</v>
+      </c>
+      <c r="L187" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M187" s="11">
+        <f>X173</f>
+        <v>61741.424916632619</v>
+      </c>
     </row>
     <row r="188" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
@@ -28790,6 +29967,27 @@
         <f>AA172</f>
         <v>194803.76687217623</v>
       </c>
+      <c r="H188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I188" s="11">
+        <f>Y173</f>
+        <v>0.35760760801951341</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K188" s="11">
+        <f>Z173</f>
+        <v>0.20215518658880935</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M188" s="11">
+        <f>AA173</f>
+        <v>93170.911882960034</v>
+      </c>
     </row>
     <row r="189" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
@@ -28813,6 +30011,27 @@
         <f>AD172</f>
         <v>109724.1970067771</v>
       </c>
+      <c r="H189" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I189" s="11">
+        <f>AB173</f>
+        <v>0.40423237650653238</v>
+      </c>
+      <c r="J189" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K189" s="11">
+        <f>AC173</f>
+        <v>0.23816127303189813</v>
+      </c>
+      <c r="L189" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M189" s="11">
+        <f>AD173</f>
+        <v>57067.996731357074</v>
+      </c>
     </row>
     <row r="190" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -28836,6 +30055,27 @@
         <f>AG172</f>
         <v>205206.00562405874</v>
       </c>
+      <c r="H190" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I190" s="11">
+        <f>AE173</f>
+        <v>0.25984838653614939</v>
+      </c>
+      <c r="J190" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K190" s="11">
+        <f>AF173</f>
+        <v>0.17308921312286016</v>
+      </c>
+      <c r="L190" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M190" s="11">
+        <f>AG173</f>
+        <v>98677.819241127334</v>
+      </c>
     </row>
     <row r="191" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
@@ -28859,6 +30099,27 @@
         <f>AJ172</f>
         <v>269481.09798569279</v>
       </c>
+      <c r="H191" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I191" s="11">
+        <f>AH173</f>
+        <v>0.20282518049629217</v>
+      </c>
+      <c r="J191" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K191" s="11">
+        <f>AI173</f>
+        <v>0.14322563112766676</v>
+      </c>
+      <c r="L191" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M191" s="11">
+        <f>AJ173</f>
+        <v>138355.00564996459</v>
+      </c>
     </row>
     <row r="192" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
@@ -28882,8 +30143,29 @@
         <f>AM172</f>
         <v>122890.90345365836</v>
       </c>
+      <c r="H192" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I192" s="11">
+        <f>AK173</f>
+        <v>0.32977423646401594</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="11">
+        <f>AL173</f>
+        <v>0.20401695933410952</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M192" s="11">
+        <f>AM173</f>
+        <v>65933.816968366707</v>
+      </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
@@ -28905,8 +30187,29 @@
         <f>AP172</f>
         <v>111566.92758141943</v>
       </c>
+      <c r="H193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I193" s="14">
+        <f>AN173</f>
+        <v>0.40512329246849071</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K193" s="14">
+        <f>AO173</f>
+        <v>0.23635730311209296</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M193" s="14">
+        <f>AP173</f>
+        <v>59386.688605890049</v>
+      </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>9</v>
       </c>
@@ -28928,8 +30231,29 @@
         <f>AS172</f>
         <v>109884.9753270896</v>
       </c>
+      <c r="H194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I194" s="14">
+        <f>AQ173</f>
+        <v>0.39810867774465014</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K194" s="14">
+        <f>AR173</f>
+        <v>0.23864175840161883</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M194" s="14">
+        <f>AS173</f>
+        <v>57114.652313608058</v>
+      </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -28951,8 +30275,29 @@
         <f>AV172</f>
         <v>147220.80745246611</v>
       </c>
+      <c r="H195" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I195" s="11">
+        <f>AT173</f>
+        <v>0.37047828698988572</v>
+      </c>
+      <c r="J195" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K195" s="11">
+        <f>AU173</f>
+        <v>0.2090085757310724</v>
+      </c>
+      <c r="L195" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M195" s="11">
+        <f>AV173</f>
+        <v>90493.488879569239</v>
+      </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>18</v>
       </c>
@@ -28974,30 +30319,30 @@
         <f>AY172</f>
         <v>109724.1970067771</v>
       </c>
+      <c r="H196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I196" s="14">
+        <f>AW173</f>
+        <v>0.40423237650653238</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K196" s="14">
+        <f>AX173</f>
+        <v>0.23816127303189813</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M196" s="14">
+        <f>AY173</f>
+        <v>57067.996731357074</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="G170:I170"/>
-    <mergeCell ref="J170:L170"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:R170"/>
-    <mergeCell ref="S170:U170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="Y170:AA170"/>
-    <mergeCell ref="AB170:AD170"/>
     <mergeCell ref="AW2:AY2"/>
     <mergeCell ref="AT170:AV170"/>
     <mergeCell ref="AE170:AG170"/>
@@ -29010,6 +30355,27 @@
     <mergeCell ref="AQ2:AS2"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="P170:R170"/>
+    <mergeCell ref="S170:U170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="Y170:AA170"/>
+    <mergeCell ref="AB170:AD170"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="G170:I170"/>
+    <mergeCell ref="J170:L170"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/subRE/medidasEspaciosdecolorRE.xlsx
+++ b/subRE/medidasEspaciosdecolorRE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="22">
   <si>
     <t>RGB</t>
   </si>
@@ -240,11 +240,11 @@
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2675,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N179" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U204" sqref="U204"/>
+    <sheetView tabSelected="1" topLeftCell="O179" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2721,87 +2721,87 @@
   <sheetData>
     <row r="1" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="30" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="30" t="s">
         <v>6</v>
       </c>
       <c r="T2" s="29"/>
       <c r="U2" s="29"/>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="W2" s="29"/>
       <c r="X2" s="29"/>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="30" t="s">
         <v>8</v>
       </c>
       <c r="Z2" s="29"/>
       <c r="AA2" s="29"/>
-      <c r="AB2" s="28" t="s">
+      <c r="AB2" s="30" t="s">
         <v>9</v>
       </c>
       <c r="AC2" s="29"/>
       <c r="AD2" s="29"/>
-      <c r="AE2" s="28" t="s">
+      <c r="AE2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="AF2" s="29"/>
       <c r="AG2" s="29"/>
-      <c r="AH2" s="28" t="s">
+      <c r="AH2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="AI2" s="29"/>
       <c r="AJ2" s="29"/>
-      <c r="AK2" s="28" t="s">
+      <c r="AK2" s="30" t="s">
         <v>11</v>
       </c>
       <c r="AL2" s="29"/>
       <c r="AM2" s="29"/>
-      <c r="AN2" s="28" t="s">
+      <c r="AN2" s="30" t="s">
         <v>12</v>
       </c>
       <c r="AO2" s="29"/>
       <c r="AP2" s="29"/>
-      <c r="AQ2" s="28" t="s">
+      <c r="AQ2" s="30" t="s">
         <v>9</v>
       </c>
       <c r="AR2" s="29"/>
       <c r="AS2" s="29"/>
-      <c r="AT2" s="28" t="s">
+      <c r="AT2" s="30" t="s">
         <v>13</v>
       </c>
       <c r="AU2" s="29"/>
       <c r="AV2" s="29"/>
-      <c r="AW2" s="30" t="s">
+      <c r="AW2" s="28" t="s">
         <v>14</v>
       </c>
       <c r="AX2" s="29"/>
@@ -28544,12 +28544,12 @@
       </c>
     </row>
     <row r="170" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A170" s="30" t="s">
+      <c r="A170" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B170" s="29"/>
       <c r="C170" s="29"/>
-      <c r="D170" s="28" t="s">
+      <c r="D170" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E170" s="29"/>
@@ -28559,71 +28559,76 @@
       </c>
       <c r="H170" s="32"/>
       <c r="I170" s="32"/>
-      <c r="J170" s="28" t="s">
+      <c r="J170" s="30" t="s">
         <v>3</v>
       </c>
       <c r="K170" s="29"/>
       <c r="L170" s="29"/>
-      <c r="M170" s="28" t="s">
+      <c r="M170" s="30" t="s">
         <v>4</v>
       </c>
       <c r="N170" s="29"/>
       <c r="O170" s="29"/>
-      <c r="P170" s="28" t="s">
+      <c r="P170" s="30" t="s">
         <v>5</v>
       </c>
       <c r="Q170" s="29"/>
       <c r="R170" s="29"/>
-      <c r="S170" s="28" t="s">
+      <c r="S170" s="30" t="s">
         <v>6</v>
       </c>
       <c r="T170" s="29"/>
       <c r="U170" s="29"/>
-      <c r="V170" s="28" t="s">
+      <c r="V170" s="30" t="s">
         <v>7</v>
       </c>
       <c r="W170" s="29"/>
       <c r="X170" s="29"/>
-      <c r="Y170" s="28" t="s">
+      <c r="Y170" s="30" t="s">
         <v>8</v>
       </c>
       <c r="Z170" s="29"/>
       <c r="AA170" s="29"/>
-      <c r="AB170" s="28" t="s">
+      <c r="AB170" s="30" t="s">
         <v>9</v>
       </c>
       <c r="AC170" s="29"/>
       <c r="AD170" s="29"/>
-      <c r="AE170" s="28" t="s">
+      <c r="AE170" s="30" t="s">
         <v>10</v>
       </c>
       <c r="AF170" s="29"/>
       <c r="AG170" s="29"/>
-      <c r="AH170" s="28" t="s">
+      <c r="AH170" s="30" t="s">
         <v>7</v>
       </c>
       <c r="AI170" s="29"/>
       <c r="AJ170" s="29"/>
-      <c r="AK170" s="28" t="s">
+      <c r="AK170" s="30" t="s">
         <v>11</v>
       </c>
       <c r="AL170" s="29"/>
       <c r="AM170" s="29"/>
-      <c r="AN170" s="28" t="s">
+      <c r="AN170" s="30" t="s">
         <v>12</v>
       </c>
       <c r="AO170" s="29"/>
       <c r="AP170" s="29"/>
-      <c r="AQ170" s="28" t="s">
+      <c r="AQ170" s="30" t="s">
         <v>9</v>
       </c>
       <c r="AR170" s="29"/>
       <c r="AS170" s="29"/>
-      <c r="AT170" s="28" t="s">
+      <c r="AT170" s="30" t="s">
         <v>13</v>
       </c>
       <c r="AU170" s="29"/>
       <c r="AV170" s="29"/>
+      <c r="AW170" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX170" s="28"/>
+      <c r="AY170" s="28"/>
     </row>
     <row r="171" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
@@ -30342,7 +30347,28 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="G170:I170"/>
+    <mergeCell ref="J170:L170"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:R170"/>
+    <mergeCell ref="S170:U170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="Y170:AA170"/>
+    <mergeCell ref="AB170:AD170"/>
     <mergeCell ref="AW2:AY2"/>
     <mergeCell ref="AT170:AV170"/>
     <mergeCell ref="AE170:AG170"/>
@@ -30355,27 +30381,7 @@
     <mergeCell ref="AQ2:AS2"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="P170:R170"/>
-    <mergeCell ref="S170:U170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="Y170:AA170"/>
-    <mergeCell ref="AB170:AD170"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="G170:I170"/>
-    <mergeCell ref="J170:L170"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AW170:AY170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
